--- a/xlsx/高卢的阿玛迪斯_intext.xlsx
+++ b/xlsx/高卢的阿玛迪斯_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E8%92%82%E5%88%A9%E4%BA%9A%E8%AF%AD</t>
